--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T14:30:08+00:00</t>
+    <t>2025-03-20T14:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -369,7 +369,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2025-05-24T18:49:16+00:00</t>
+    <t>2025-05-24T19:02:35+00:00</t>
   </si>
   <si>
     <t>Profil av Bundle for Legemiddelregisteret. Støtter bare transaction-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -369,7 +369,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2025-05-24T19:02:35+00:00</t>
+    <t>2025-08-26T11:15:59+00:00</t>
   </si>
   <si>
     <t>Profil av Bundle for Legemiddelregisteret. Støtter bare transaction-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -369,7 +369,7 @@
     <t>draft</t>
   </si>
   <si>
-    <t>2025-09-09T11:44:24+00:00</t>
+    <t>2025-09-10T11:45:52+00:00</t>
   </si>
   <si>
     <t>Profil av Bundle for Legemiddelregisteret. Støtter bare transaction-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>
